--- a/FormsApp/FormsApp/resources/ODDS.xlsx
+++ b/FormsApp/FormsApp/resources/ODDS.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Kliente\DEC\Kathutselo Mavhunga BERTIE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\FormsApp\FormsApp\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71778EF7-4720-47C4-8424-F8F10AF7D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ODDS" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">ODDS!$A$1:$I$42</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
   <si>
     <t>Is there a analysis done</t>
   </si>
@@ -103,70 +107,52 @@
     <t>Date:</t>
   </si>
   <si>
-    <t>No X</t>
-  </si>
-  <si>
-    <t>Yes X</t>
-  </si>
-  <si>
     <t xml:space="preserve">No </t>
   </si>
   <si>
-    <t>YesX</t>
-  </si>
-  <si>
     <t xml:space="preserve">Yes </t>
   </si>
   <si>
     <t>Enterprise Business: Eco Bluestar</t>
   </si>
   <si>
-    <t>Motivation from advisor why the policy will stay on the books: The client is trustworthy and client told me that he needs the cover so I am sure the client will be on our books for long. Client assured me that this is important to her and her family</t>
-  </si>
-  <si>
-    <t>ADVISOR: Koos Tredoux</t>
-  </si>
-  <si>
-    <t>CODE: 05168902</t>
-  </si>
-  <si>
     <t>Jacobus Tredoux</t>
   </si>
   <si>
     <t xml:space="preserve">Stop Order  </t>
   </si>
   <si>
-    <t>Debit  x</t>
-  </si>
-  <si>
-    <t>grade 12</t>
-  </si>
-  <si>
-    <t>matrix topcover</t>
-  </si>
-  <si>
-    <t>CLIENT:  Khathutshelo Mavhunga</t>
-  </si>
-  <si>
-    <t>AGE: 33</t>
-  </si>
-  <si>
-    <t>QUOTATION NUMBER: 6441473</t>
-  </si>
-  <si>
     <t>ODDS: 26</t>
   </si>
   <si>
-    <t>Sales assistant</t>
-  </si>
-  <si>
-    <t>PLAN NUMBER:046276919X1</t>
+    <t xml:space="preserve">CLIENT:  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGE: </t>
+  </si>
+  <si>
+    <t>PLAN NUMBER:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QUOTATION NUMBER: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADVISOR: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motivation from advisor why the policy will stay on the books: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="&quot;R&quot;#,##0;[Red]\-&quot;R&quot;#,##0"/>
     <numFmt numFmtId="8" formatCode="&quot;R&quot;#,##0.00;[Red]\-&quot;R&quot;#,##0.00"/>
@@ -355,23 +341,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,7 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
@@ -399,6 +392,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -408,8 +422,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -423,7 +470,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -437,71 +484,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -637,7 +619,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -745,6 +733,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -780,6 +785,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -955,682 +977,702 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:I6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="0.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="4" max="4" width="0.33203125" customWidth="1"/>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="9" max="9" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-    </row>
-    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="53"/>
-    </row>
-    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="25"/>
+      <c r="G4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="29"/>
+      <c r="G5" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
-      <c r="I3" s="56"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="21"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="45"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="46">
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="38">
         <v>1</v>
       </c>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="40"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="1" t="s">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="35"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="34">
-        <v>513.05999999999995</v>
-      </c>
-      <c r="I12" s="35"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="31"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="39"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" s="37"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="34"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="32">
-        <v>15000</v>
-      </c>
-      <c r="I16" s="33"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="41"/>
+      <c r="I16" s="26"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
       <c r="H17" s="1" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
         <v>13</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="22">
-        <v>3889.88</v>
-      </c>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>17</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I23" s="2" t="s">
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="24"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="25"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="26"/>
-      <c r="B25" s="27"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="28"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="26"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="28"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="28"/>
-    </row>
-    <row r="28" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="31"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
-      <c r="G29" s="33"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="33"/>
-    </row>
-    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="44" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="45"/>
+      <c r="E24" s="45"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="46"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="47"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="49"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="47"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="49"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="47"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="49"/>
+    </row>
+    <row r="28" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="52"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="33" t="s">
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="33"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="6" t="s">
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="9">
+      <c r="B32" s="7">
         <v>12122022</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="12"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="13"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="15"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="15"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="18"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="C32" s="5"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="13"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="26"/>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="16"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="22"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="33" t="s">
+      <c r="B36" s="25"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="33"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="15"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="15"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="18"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="29"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="13"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="16"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="16"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="22"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="33" t="s">
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="49" t="s">
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="52"/>
-      <c r="H42" s="52"/>
-      <c r="I42" s="52"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="E32:I35"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="A24:I28"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B9:G9"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="E37:I40"/>
     <mergeCell ref="E42:I42"/>
@@ -1647,52 +1689,20 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B14:G14"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="E32:I35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="A24:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="97" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/FormsApp/FormsApp/resources/ODDS.xlsx
+++ b/FormsApp/FormsApp/resources/ODDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\source\FormsApp\FormsApp\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71778EF7-4720-47C4-8424-F8F10AF7D0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2814AC8-D579-4602-90C7-4F70C715D410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ODDS" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Is there a analysis done</t>
   </si>
@@ -116,15 +116,9 @@
     <t>Enterprise Business: Eco Bluestar</t>
   </si>
   <si>
-    <t>Jacobus Tredoux</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stop Order  </t>
   </si>
   <si>
-    <t>ODDS: 26</t>
-  </si>
-  <si>
     <t xml:space="preserve">CLIENT:  </t>
   </si>
   <si>
@@ -147,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">Motivation from advisor why the policy will stay on the books: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ODDS: </t>
   </si>
 </sst>
 </file>
@@ -356,6 +353,111 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -365,33 +467,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -406,84 +481,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -602,56 +599,6 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>266700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304394</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>323850</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2971800" y="6076950"/>
-          <a:ext cx="1075919" cy="828675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -981,7 +928,7 @@
   <dimension ref="A1:I45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="O30" sqref="O30"/>
+      <selection activeCell="A6" sqref="A6:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,116 +942,116 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" spans="1:9" ht="26.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="52"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="20"/>
+      <c r="G4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="25" t="s">
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="19"/>
+      <c r="G5" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="25"/>
-      <c r="G4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="28"/>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="29"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
+      <c r="A6" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="41"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="38">
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="42">
         <v>1</v>
       </c>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="40"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="1" t="s">
         <v>1</v>
       </c>
@@ -1116,14 +1063,14 @@
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
       <c r="H9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1135,29 +1082,29 @@
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="31"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="33"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
       <c r="H11" s="1" t="s">
         <v>1</v>
       </c>
@@ -1169,93 +1116,93 @@
       <c r="A12" s="1">
         <v>5</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="31"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="33"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>7</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="34"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="35"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>8</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="34"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>9</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="26"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>10</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
       <c r="H17" s="1" t="s">
         <v>1</v>
       </c>
@@ -1267,14 +1214,14 @@
       <c r="A18" s="1">
         <v>11</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
       <c r="H18" s="1" t="s">
         <v>1</v>
       </c>
@@ -1286,14 +1233,14 @@
       <c r="A19" s="1">
         <v>12</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
       <c r="H19" s="1" t="s">
         <v>1</v>
       </c>
@@ -1305,29 +1252,29 @@
       <c r="A20" s="2">
         <v>13</v>
       </c>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>14</v>
       </c>
-      <c r="B21" s="25" t="s">
+      <c r="B21" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
       <c r="H21" s="1" t="s">
         <v>28</v>
       </c>
@@ -1339,14 +1286,14 @@
       <c r="A22" s="1">
         <v>15</v>
       </c>
-      <c r="B22" s="25" t="s">
+      <c r="B22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="25"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="1" t="s">
         <v>28</v>
       </c>
@@ -1358,14 +1305,14 @@
       <c r="A23" s="1">
         <v>17</v>
       </c>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
       <c r="H23" s="1" t="s">
         <v>1</v>
       </c>
@@ -1374,85 +1321,83 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="46"/>
+      <c r="A24" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="23"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="47"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="49"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="26"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="48"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="26"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
+      <c r="A27" s="24"/>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="26"/>
     </row>
     <row r="28" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="52"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="29"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
@@ -1461,13 +1406,13 @@
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -1478,133 +1423,133 @@
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="11"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="13"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="10"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="15"/>
-      <c r="I33" s="16"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="13"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="26"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="15"/>
-      <c r="I34" s="16"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="31"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="13"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="26"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="31"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="16"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="25"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="26" t="s">
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="F36" s="26"/>
-      <c r="G36" s="26"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="29"/>
+      <c r="B37" s="18"/>
+      <c r="C37" s="19"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="11"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="13"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="10"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="26"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="15"/>
-      <c r="I38" s="16"/>
+      <c r="A38" s="31"/>
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="13"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="26"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-      <c r="H39" s="15"/>
-      <c r="I39" s="16"/>
+      <c r="A39" s="31"/>
+      <c r="B39" s="31"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="13"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="26"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="19"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="31"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="16"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="26" t="s">
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="9"/>
-      <c r="C42" s="10"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="47"/>
       <c r="D42" s="6"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
@@ -1641,38 +1586,6 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="E32:I35"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="A24:I28"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A6:I6"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:I4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B9:G9"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="E37:I40"/>
     <mergeCell ref="E42:I42"/>
@@ -1689,6 +1602,38 @@
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B14:G14"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A6:I6"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:I4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="E32:I35"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="A24:I28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
